--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -45,7 +45,7 @@
     <t>Харьков</t>
   </si>
   <si>
-    <t>30 июля, Сб</t>
+    <t>5 августа, Пт</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
